--- a/SeleniumHybridFrameWorkWebWindows/TestData/Data.xlsx
+++ b/SeleniumHybridFrameWorkWebWindows/TestData/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nlibu\git\SeleniumHybridFrameWorkExcel\SeleniumHybridFrameWorkExcel\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nlibu\git\SeleniumHybridFrameWorkWebWindows\SeleniumHybridFrameWorkWebWindows\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D0583-2DD8-4E70-BE8F-BB624EC40BF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E092E91D-08D7-4E6A-B1FE-9B8554FB15F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62820" yWindow="1125" windowWidth="21600" windowHeight="10395" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
+    <workbookView xWindow="60165" yWindow="750" windowWidth="21600" windowHeight="10395" xr2:uid="{D8AE6DB4-C108-4ADD-9D6B-A73C94B891EA}"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>nlibuit@comcast.net</t>
+    <t>xxxx@gmail.com</t>
   </si>
   <si>
-    <t>God!sgood1</t>
+    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C385ED58-3B5D-410B-AFE3-AF123F50F16C}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{E015DBE1-3AAF-4FE4-A8BF-18041086D628}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{6D278EAA-B03F-463D-9477-63AB85494C0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
